--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Testing\Manual Testing Projects\OpenCart Test Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3671C6-5A77-4615-BF8C-16CF009F5A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5AD54-6AAB-4464-B2DA-58585B68FBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="914" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -50,17 +50,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Register!$A$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="2135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="2135">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -8143,9 +8154,6 @@
     <t>FRS</t>
   </si>
   <si>
-    <t>DD-MM-YYYY</t>
-  </si>
-  <si>
     <t>1. Click on 'My Account' Drop menu
 2. Click on 'Register' option 
 3. Check all the fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) including the 'Continue' button (ER-1)</t>
@@ -8158,6 +8166,9 @@
   </si>
   <si>
     <t>Validate the breadcrumb, Page Heading, Page Title and Page URL of Login page</t>
+  </si>
+  <si>
+    <t>Syeda Tamanna Sheme</t>
   </si>
 </sst>
 </file>
@@ -8462,7 +8473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8477,7 +8488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8486,7 +8497,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8535,7 +8546,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8553,25 +8563,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8601,7 +8602,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8651,6 +8652,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9809,80 +9813,80 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+    <col min="8" max="8" width="50.88671875" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.42578125" customWidth="1"/>
+    <col min="10" max="10" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
-    <row r="7" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
+    <row r="7" spans="7:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>1127</v>
       </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="29"/>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>1128</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G9" s="29"/>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G10" s="29"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G11" s="29"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="36" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G12" s="29"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="7:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="64"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="7:10" ht="18" x14ac:dyDescent="0.35">
       <c r="G13" s="29"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9902,22 +9906,22 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9952,11 +9956,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -9967,7 +9971,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>386</v>
       </c>
@@ -9994,7 +9998,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>388</v>
       </c>
@@ -10021,7 +10025,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>390</v>
       </c>
@@ -10048,7 +10052,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>393</v>
       </c>
@@ -10075,7 +10079,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>394</v>
       </c>
@@ -10102,7 +10106,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>395</v>
       </c>
@@ -10129,7 +10133,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>396</v>
       </c>
@@ -10156,7 +10160,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>398</v>
       </c>
@@ -10183,7 +10187,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>399</v>
       </c>
@@ -10250,20 +10254,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -10302,10 +10306,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10316,7 +10320,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>405</v>
       </c>
@@ -10343,7 +10347,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>406</v>
       </c>
@@ -10370,7 +10374,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>409</v>
       </c>
@@ -10397,7 +10401,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>410</v>
       </c>
@@ -10424,7 +10428,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>411</v>
       </c>
@@ -10451,7 +10455,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>413</v>
       </c>
@@ -10478,7 +10482,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>414</v>
       </c>
@@ -10505,7 +10509,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>416</v>
       </c>
@@ -10532,7 +10536,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>417</v>
       </c>
@@ -10559,7 +10563,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>419</v>
       </c>
@@ -10586,7 +10590,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>421</v>
       </c>
@@ -10613,7 +10617,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>422</v>
       </c>
@@ -10640,7 +10644,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>423</v>
       </c>
@@ -10667,7 +10671,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>424</v>
       </c>
@@ -10694,7 +10698,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>425</v>
       </c>
@@ -10721,7 +10725,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>426</v>
       </c>
@@ -10748,7 +10752,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>427</v>
       </c>
@@ -10775,7 +10779,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>428</v>
       </c>
@@ -10802,7 +10806,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>429</v>
       </c>
@@ -10865,26 +10869,26 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -10919,11 +10923,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10934,7 +10938,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>441</v>
       </c>
@@ -10961,7 +10965,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>445</v>
       </c>
@@ -10988,7 +10992,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>446</v>
       </c>
@@ -11015,7 +11019,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>448</v>
       </c>
@@ -11042,7 +11046,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>449</v>
       </c>
@@ -11069,7 +11073,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>450</v>
       </c>
@@ -11096,7 +11100,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>452</v>
       </c>
@@ -11123,7 +11127,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>454</v>
       </c>
@@ -11150,7 +11154,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>456</v>
       </c>
@@ -11177,7 +11181,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>458</v>
       </c>
@@ -11204,7 +11208,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>460</v>
       </c>
@@ -11231,7 +11235,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>462</v>
       </c>
@@ -11258,7 +11262,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>465</v>
       </c>
@@ -11285,7 +11289,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>467</v>
       </c>
@@ -11312,7 +11316,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>471</v>
       </c>
@@ -11339,7 +11343,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>473</v>
       </c>
@@ -11366,7 +11370,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>476</v>
       </c>
@@ -11393,7 +11397,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>479</v>
       </c>
@@ -11420,7 +11424,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>480</v>
       </c>
@@ -11447,7 +11451,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>482</v>
       </c>
@@ -11474,7 +11478,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>484</v>
       </c>
@@ -11501,7 +11505,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>487</v>
       </c>
@@ -11528,7 +11532,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>490</v>
       </c>
@@ -11555,7 +11559,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>491</v>
       </c>
@@ -11582,7 +11586,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>492</v>
       </c>
@@ -11609,7 +11613,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>493</v>
       </c>
@@ -11636,7 +11640,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>494</v>
       </c>
@@ -11663,7 +11667,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>503</v>
       </c>
@@ -11690,7 +11694,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>504</v>
       </c>
@@ -11717,7 +11721,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>506</v>
       </c>
@@ -11744,7 +11748,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>510</v>
       </c>
@@ -11771,7 +11775,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>511</v>
       </c>
@@ -11798,7 +11802,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>512</v>
       </c>
@@ -11861,24 +11865,24 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11917,10 +11921,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -11931,7 +11935,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>516</v>
       </c>
@@ -11958,7 +11962,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>517</v>
       </c>
@@ -11985,7 +11989,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>518</v>
       </c>
@@ -12012,7 +12016,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>519</v>
       </c>
@@ -12039,7 +12043,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>520</v>
       </c>
@@ -12066,7 +12070,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>521</v>
       </c>
@@ -12093,7 +12097,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>522</v>
       </c>
@@ -12120,7 +12124,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>523</v>
       </c>
@@ -12147,7 +12151,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>524</v>
       </c>
@@ -12174,7 +12178,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>525</v>
       </c>
@@ -12242,20 +12246,20 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12294,10 +12298,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12308,7 +12312,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>536</v>
       </c>
@@ -12335,7 +12339,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>540</v>
       </c>
@@ -12362,7 +12366,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>542</v>
       </c>
@@ -12389,7 +12393,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>544</v>
       </c>
@@ -12416,7 +12420,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="277.2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>545</v>
       </c>
@@ -12443,7 +12447,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="327.60000000000002" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>546</v>
       </c>
@@ -12470,7 +12474,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="327.60000000000002" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>549</v>
       </c>
@@ -12551,7 +12555,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="327.60000000000002" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>554</v>
       </c>
@@ -12578,7 +12582,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="327.60000000000002" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>555</v>
       </c>
@@ -12740,7 +12744,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="289.8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>567</v>
       </c>
@@ -12794,7 +12798,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>571</v>
       </c>
@@ -12821,7 +12825,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>572</v>
       </c>
@@ -12889,20 +12893,20 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -12941,10 +12945,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12955,7 +12959,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>575</v>
       </c>
@@ -12982,7 +12986,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>578</v>
       </c>
@@ -13009,7 +13013,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>580</v>
       </c>
@@ -13036,7 +13040,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>581</v>
       </c>
@@ -13063,7 +13067,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>582</v>
       </c>
@@ -13090,7 +13094,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>584</v>
       </c>
@@ -13117,7 +13121,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>585</v>
       </c>
@@ -13144,7 +13148,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>587</v>
       </c>
@@ -13171,7 +13175,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>588</v>
       </c>
@@ -13239,20 +13243,20 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="56" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13291,10 +13295,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13305,7 +13309,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>591</v>
       </c>
@@ -13332,7 +13336,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>594</v>
       </c>
@@ -13359,7 +13363,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>595</v>
       </c>
@@ -13413,7 +13417,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>599</v>
       </c>
@@ -13440,7 +13444,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>604</v>
       </c>
@@ -13467,7 +13471,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>606</v>
       </c>
@@ -13494,7 +13498,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>608</v>
       </c>
@@ -13521,7 +13525,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>609</v>
       </c>
@@ -13548,7 +13552,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>610</v>
       </c>
@@ -13575,7 +13579,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>611</v>
       </c>
@@ -13602,7 +13606,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>616</v>
       </c>
@@ -13697,20 +13701,20 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -13749,10 +13753,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13763,7 +13767,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>618</v>
       </c>
@@ -13790,7 +13794,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>619</v>
       </c>
@@ -13817,7 +13821,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>621</v>
       </c>
@@ -13844,7 +13848,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>623</v>
       </c>
@@ -13871,7 +13875,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>625</v>
       </c>
@@ -13925,7 +13929,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>629</v>
       </c>
@@ -13952,7 +13956,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>631</v>
       </c>
@@ -13979,7 +13983,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>633</v>
       </c>
@@ -14006,7 +14010,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>635</v>
       </c>
@@ -14033,7 +14037,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>637</v>
       </c>
@@ -14060,7 +14064,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>638</v>
       </c>
@@ -14087,7 +14091,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>640</v>
       </c>
@@ -14155,20 +14159,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -14207,10 +14211,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -14221,7 +14225,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>642</v>
       </c>
@@ -14248,7 +14252,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>643</v>
       </c>
@@ -14275,7 +14279,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>644</v>
       </c>
@@ -14302,7 +14306,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>645</v>
       </c>
@@ -14329,7 +14333,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>646</v>
       </c>
@@ -14383,7 +14387,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>648</v>
       </c>
@@ -14410,7 +14414,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>649</v>
       </c>
@@ -14437,7 +14441,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>650</v>
       </c>
@@ -14464,7 +14468,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>651</v>
       </c>
@@ -14491,7 +14495,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>652</v>
       </c>
@@ -14518,7 +14522,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>653</v>
       </c>
@@ -14545,7 +14549,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>654</v>
       </c>
@@ -14572,7 +14576,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>667</v>
       </c>
@@ -14626,7 +14630,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="264.60000000000002" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>671</v>
       </c>
@@ -14653,7 +14657,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>673</v>
       </c>
@@ -14680,7 +14684,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>675</v>
       </c>
@@ -14707,7 +14711,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>677</v>
       </c>
@@ -14734,7 +14738,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>679</v>
       </c>
@@ -14761,7 +14765,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>680</v>
       </c>
@@ -14829,20 +14833,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -14881,10 +14885,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -14895,7 +14899,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>683</v>
       </c>
@@ -14922,7 +14926,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>685</v>
       </c>
@@ -14949,7 +14953,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>686</v>
       </c>
@@ -14976,7 +14980,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>687</v>
       </c>
@@ -15003,7 +15007,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>688</v>
       </c>
@@ -15057,7 +15061,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>692</v>
       </c>
@@ -15084,7 +15088,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>693</v>
       </c>
@@ -15111,7 +15115,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>695</v>
       </c>
@@ -15138,7 +15142,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>696</v>
       </c>
@@ -15165,7 +15169,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>697</v>
       </c>
@@ -15192,7 +15196,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>699</v>
       </c>
@@ -15255,615 +15259,615 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32775450-76C2-4CCA-AF58-1359E2E0BE87}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="39.5546875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>1076</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>1126</v>
       </c>
-      <c r="C2" s="70"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="C2" s="66"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>1077</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>1127</v>
       </c>
-      <c r="C3" s="70"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="C3" s="66"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>1078</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>2128</v>
       </c>
-      <c r="C4" s="70"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="C4" s="66"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>1079</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C5" s="70"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="B5" s="66" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C5" s="66"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="B6" s="70" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C6" s="70"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="B6" s="71">
+        <v>45750</v>
+      </c>
+      <c r="C6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>1081</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C7" s="70"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="B7" s="71">
+        <v>45731</v>
+      </c>
+      <c r="C7" s="66"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>1084</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="47" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>1093</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>1096</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="37">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>1097</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="48" t="s">
         <v>1098</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="48" t="s">
         <v>1099</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>1087</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="37">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="48" t="s">
         <v>1100</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="37">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="48" t="s">
         <v>1101</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>1089</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>1102</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="37">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="48" t="s">
         <v>1103</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="48" t="s">
         <v>1104</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>1089</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="37">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="48" t="s">
         <v>1105</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="37">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="48" t="s">
         <v>1106</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>1087</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="37">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>1091</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="37">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="48" t="s">
         <v>1107</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>1087</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="37">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="48" t="s">
         <v>1108</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="37">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="48" t="s">
         <v>1109</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="37">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="48" t="s">
         <v>1110</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="37">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="48" t="s">
         <v>1111</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E27" s="40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="E27" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="48" t="s">
         <v>1112</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="37">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="48" t="s">
         <v>1113</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="48" t="s">
         <v>1114</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="37">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="48" t="s">
         <v>1115</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="37">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
         <v>798</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="48" t="s">
         <v>1116</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="37">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
         <v>825</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="48" t="s">
         <v>1117</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>848</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="48" t="s">
         <v>1118</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>1092</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="37">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="48" t="s">
         <v>1119</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="37" t="s">
         <v>1089</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="37">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
         <v>904</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>2129</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="48" t="s">
         <v>1120</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>1089</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="37">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
         <v>930</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="41" t="s">
         <v>2129</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="49" t="s">
         <v>1121</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="41" t="s">
         <v>1089</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>961</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="41" t="s">
         <v>2129</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="49" t="s">
         <v>1122</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="41" t="s">
         <v>1089</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
         <v>998</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="42" t="s">
         <v>2129</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="50" t="s">
         <v>1123</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="42" t="s">
         <v>1089</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
         <v>1057</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="42" t="s">
         <v>2129</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="50" t="s">
         <v>1124</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="42" t="s">
         <v>1089</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="42">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
         <v>1070</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="42" t="s">
         <v>2129</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="50" t="s">
         <v>1125</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="42" t="s">
         <v>1087</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="42">
         <v>3</v>
       </c>
     </row>
@@ -15923,20 +15927,20 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15975,10 +15979,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16016,7 +16020,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>708</v>
       </c>
@@ -16043,7 +16047,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>710</v>
       </c>
@@ -16070,7 +16074,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>712</v>
       </c>
@@ -16097,7 +16101,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>714</v>
       </c>
@@ -16124,7 +16128,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>716</v>
       </c>
@@ -16151,7 +16155,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>717</v>
       </c>
@@ -16178,7 +16182,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>718</v>
       </c>
@@ -16245,20 +16249,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -16297,10 +16301,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16311,7 +16315,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>723</v>
       </c>
@@ -16338,7 +16342,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>725</v>
       </c>
@@ -16365,7 +16369,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>727</v>
       </c>
@@ -16392,7 +16396,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>730</v>
       </c>
@@ -16419,7 +16423,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>732</v>
       </c>
@@ -16446,7 +16450,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>734</v>
       </c>
@@ -16473,7 +16477,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>736</v>
       </c>
@@ -16500,7 +16504,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>738</v>
       </c>
@@ -16527,7 +16531,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>739</v>
       </c>
@@ -16554,7 +16558,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>740</v>
       </c>
@@ -16581,7 +16585,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>741</v>
       </c>
@@ -16648,20 +16652,20 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -16700,10 +16704,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16714,7 +16718,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>745</v>
       </c>
@@ -16741,7 +16745,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>747</v>
       </c>
@@ -16768,7 +16772,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>748</v>
       </c>
@@ -16795,7 +16799,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>749</v>
       </c>
@@ -16822,7 +16826,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>750</v>
       </c>
@@ -16876,7 +16880,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>758</v>
       </c>
@@ -16903,7 +16907,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>759</v>
       </c>
@@ -16930,7 +16934,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>761</v>
       </c>
@@ -16957,7 +16961,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>764</v>
       </c>
@@ -16984,7 +16988,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>765</v>
       </c>
@@ -17011,7 +17015,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>766</v>
       </c>
@@ -17105,20 +17109,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -17157,10 +17161,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17171,7 +17175,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>772</v>
       </c>
@@ -17198,7 +17202,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>774</v>
       </c>
@@ -17225,7 +17229,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>775</v>
       </c>
@@ -17252,7 +17256,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>777</v>
       </c>
@@ -17279,7 +17283,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>780</v>
       </c>
@@ -17306,7 +17310,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>781</v>
       </c>
@@ -17333,7 +17337,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>784</v>
       </c>
@@ -17360,7 +17364,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>785</v>
       </c>
@@ -17387,7 +17391,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>786</v>
       </c>
@@ -17481,20 +17485,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -17533,10 +17537,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17547,7 +17551,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>792</v>
       </c>
@@ -17574,7 +17578,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>793</v>
       </c>
@@ -17601,7 +17605,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>794</v>
       </c>
@@ -17628,7 +17632,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>799</v>
       </c>
@@ -17655,7 +17659,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>802</v>
       </c>
@@ -17682,7 +17686,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>803</v>
       </c>
@@ -17709,7 +17713,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>806</v>
       </c>
@@ -17736,7 +17740,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>808</v>
       </c>
@@ -17763,7 +17767,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>809</v>
       </c>
@@ -17790,7 +17794,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>810</v>
       </c>
@@ -17817,7 +17821,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>811</v>
       </c>
@@ -17844,7 +17848,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>813</v>
       </c>
@@ -17871,7 +17875,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>815</v>
       </c>
@@ -17898,7 +17902,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>816</v>
       </c>
@@ -17925,7 +17929,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>817</v>
       </c>
@@ -17952,7 +17956,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>818</v>
       </c>
@@ -17979,7 +17983,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>819</v>
       </c>
@@ -18046,20 +18050,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -18098,10 +18102,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18112,7 +18116,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>824</v>
       </c>
@@ -18139,7 +18143,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>828</v>
       </c>
@@ -18166,7 +18170,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>829</v>
       </c>
@@ -18193,7 +18197,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>830</v>
       </c>
@@ -18220,7 +18224,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>832</v>
       </c>
@@ -18247,7 +18251,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>834</v>
       </c>
@@ -18274,7 +18278,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>835</v>
       </c>
@@ -18301,7 +18305,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>839</v>
       </c>
@@ -18328,7 +18332,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>840</v>
       </c>
@@ -18355,7 +18359,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>841</v>
       </c>
@@ -18382,7 +18386,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>842</v>
       </c>
@@ -18449,20 +18453,20 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -18501,10 +18505,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18515,7 +18519,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>847</v>
       </c>
@@ -18542,7 +18546,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>850</v>
       </c>
@@ -18569,7 +18573,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>851</v>
       </c>
@@ -18596,7 +18600,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>854</v>
       </c>
@@ -18623,7 +18627,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>855</v>
       </c>
@@ -18650,7 +18654,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>857</v>
       </c>
@@ -18677,7 +18681,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>858</v>
       </c>
@@ -18704,7 +18708,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>859</v>
       </c>
@@ -18731,7 +18735,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>860</v>
       </c>
@@ -18798,20 +18802,20 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -18850,10 +18854,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18864,7 +18868,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>865</v>
       </c>
@@ -18891,7 +18895,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>869</v>
       </c>
@@ -18918,7 +18922,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>870</v>
       </c>
@@ -18945,7 +18949,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>871</v>
       </c>
@@ -18972,7 +18976,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>872</v>
       </c>
@@ -18999,7 +19003,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>874</v>
       </c>
@@ -19026,7 +19030,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>876</v>
       </c>
@@ -19053,7 +19057,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>878</v>
       </c>
@@ -19080,7 +19084,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>880</v>
       </c>
@@ -19134,7 +19138,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>883</v>
       </c>
@@ -19161,7 +19165,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>884</v>
       </c>
@@ -19188,7 +19192,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>885</v>
       </c>
@@ -19215,7 +19219,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>890</v>
       </c>
@@ -19242,7 +19246,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>893</v>
       </c>
@@ -19269,7 +19273,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>895</v>
       </c>
@@ -19296,7 +19300,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>896</v>
       </c>
@@ -19323,7 +19327,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>897</v>
       </c>
@@ -19350,7 +19354,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>898</v>
       </c>
@@ -19377,7 +19381,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>982</v>
       </c>
@@ -19404,7 +19408,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>983</v>
       </c>
@@ -19431,7 +19435,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>984</v>
       </c>
@@ -19458,7 +19462,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>985</v>
       </c>
@@ -19485,7 +19489,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>986</v>
       </c>
@@ -19512,7 +19516,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="226.8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>987</v>
       </c>
@@ -19539,7 +19543,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>988</v>
       </c>
@@ -19566,7 +19570,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>989</v>
       </c>
@@ -19593,7 +19597,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>995</v>
       </c>
@@ -19620,7 +19624,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>996</v>
       </c>
@@ -19687,20 +19691,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -19739,10 +19743,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -19753,7 +19757,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>903</v>
       </c>
@@ -19780,7 +19784,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>906</v>
       </c>
@@ -19807,7 +19811,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>907</v>
       </c>
@@ -19834,7 +19838,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>909</v>
       </c>
@@ -19861,7 +19865,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>910</v>
       </c>
@@ -19888,7 +19892,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>911</v>
       </c>
@@ -19915,7 +19919,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>912</v>
       </c>
@@ -19942,7 +19946,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>914</v>
       </c>
@@ -19969,7 +19973,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>918</v>
       </c>
@@ -19996,7 +20000,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>921</v>
       </c>
@@ -20023,7 +20027,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>922</v>
       </c>
@@ -20050,7 +20054,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>923</v>
       </c>
@@ -20077,7 +20081,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>924</v>
       </c>
@@ -20144,20 +20148,20 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -20196,10 +20200,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -20210,7 +20214,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>929</v>
       </c>
@@ -20237,7 +20241,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>933</v>
       </c>
@@ -20318,7 +20322,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>938</v>
       </c>
@@ -20345,7 +20349,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>940</v>
       </c>
@@ -20372,7 +20376,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>942</v>
       </c>
@@ -20399,7 +20403,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>944</v>
       </c>
@@ -20426,7 +20430,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>946</v>
       </c>
@@ -20453,7 +20457,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>948</v>
       </c>
@@ -20480,7 +20484,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>949</v>
       </c>
@@ -20507,7 +20511,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>950</v>
       </c>
@@ -20534,7 +20538,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>951</v>
       </c>
@@ -20598,804 +20602,804 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="78.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="78.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="51" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="58" t="s">
         <v>1132</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="58" t="s">
         <v>1845</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>1133</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="58" t="s">
         <v>1846</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="62" t="s">
+      <c r="F4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>1134</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="58" t="s">
         <v>1135</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="58" t="s">
         <v>1847</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="342" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="313.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="58" t="s">
         <v>1136</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="58" t="s">
         <v>1848</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="F6" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="58" t="s">
         <v>1137</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="58" t="s">
         <v>1849</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="62" t="s">
+      <c r="F7" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="58" t="s">
         <v>1138</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="58" t="s">
         <v>1850</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="58" t="s">
         <v>1851</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="65" t="s">
+      <c r="F9" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="174" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="58" t="s">
         <v>1140</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="58" t="s">
         <v>1852</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="58" t="s">
         <v>1141</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="58" t="s">
         <v>1853</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="58" t="s">
         <v>1130</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="58" t="s">
         <v>1142</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="58" t="s">
         <v>1854</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="62" t="s">
         <v>1131</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="63"/>
-    </row>
-    <row r="13" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="58" t="s">
         <v>1143</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="58" t="s">
         <v>1855</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="14" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="58" t="s">
         <v>1144</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="58" t="s">
         <v>1856</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="62" t="s">
+      <c r="F14" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="63"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="58" t="s">
         <v>1145</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="58" t="s">
         <v>1857</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="62" t="s">
+      <c r="F15" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="63"/>
-    </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="58" t="s">
         <v>1146</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="62" t="s">
+      <c r="F16" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="63"/>
-    </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="58" t="s">
         <v>1147</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="58" t="s">
         <v>1858</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="62" t="s">
+      <c r="F17" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="63"/>
-    </row>
-    <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="58" t="s">
         <v>1148</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="58" t="s">
         <v>1859</v>
       </c>
-      <c r="F18" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="62" t="s">
+      <c r="F18" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="63"/>
-    </row>
-    <row r="19" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="58" t="s">
         <v>1149</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="58" t="s">
         <v>1860</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="57">
         <v>12345</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="63"/>
-    </row>
-    <row r="20" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="58" t="s">
         <v>1150</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E20" s="62" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="62" t="s">
+      <c r="E20" s="58" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="H20" s="59"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="62" t="s">
         <v>1151</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="58" t="s">
         <v>1861</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="62" t="s">
+      <c r="F21" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="H21" s="59"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="58" t="s">
         <v>1152</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="58" t="s">
         <v>1862</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="58" t="s">
         <v>1153</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="58" t="s">
         <v>1863</v>
       </c>
-      <c r="F23" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="F23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="58" t="s">
         <v>1154</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="58" t="s">
         <v>1864</v>
       </c>
-      <c r="F24" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="62" t="s">
+      <c r="F24" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="62" t="s">
+      <c r="F25" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="57"/>
-    </row>
-    <row r="26" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="58" t="s">
         <v>1156</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="F26" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="62" t="s">
+      <c r="F26" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57"/>
-    </row>
-    <row r="27" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="58" t="s">
         <v>1157</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="57"/>
-    </row>
-    <row r="28" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="53"/>
+    </row>
+    <row r="28" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="58" t="s">
         <v>1158</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="62" t="s">
+      <c r="F28" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="57"/>
-    </row>
-    <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="H28" s="59"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="53"/>
+    </row>
+    <row r="29" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="58" t="s">
         <v>1159</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="62" t="s">
+      <c r="F29" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="63"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21437,22 +21441,22 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -21487,11 +21491,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -21502,7 +21506,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>956</v>
       </c>
@@ -21529,7 +21533,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>958</v>
       </c>
@@ -21556,7 +21560,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>960</v>
       </c>
@@ -21583,7 +21587,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>962</v>
       </c>
@@ -21610,7 +21614,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>963</v>
       </c>
@@ -21637,7 +21641,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>964</v>
       </c>
@@ -21664,7 +21668,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="340.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>965</v>
       </c>
@@ -21691,7 +21695,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>968</v>
       </c>
@@ -21718,7 +21722,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>969</v>
       </c>
@@ -21745,7 +21749,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>970</v>
       </c>
@@ -21772,7 +21776,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>971</v>
       </c>
@@ -21839,22 +21843,22 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -21889,11 +21893,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -21904,7 +21908,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>997</v>
       </c>
@@ -21931,7 +21935,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1000</v>
       </c>
@@ -21958,7 +21962,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1001</v>
       </c>
@@ -21985,7 +21989,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1003</v>
       </c>
@@ -22012,7 +22016,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>1005</v>
       </c>
@@ -22039,7 +22043,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>1007</v>
       </c>
@@ -22066,7 +22070,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>1009</v>
       </c>
@@ -22093,7 +22097,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>1011</v>
       </c>
@@ -22120,7 +22124,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>1013</v>
       </c>
@@ -22147,7 +22151,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>1014</v>
       </c>
@@ -22174,7 +22178,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>1017</v>
       </c>
@@ -22201,7 +22205,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>1020</v>
       </c>
@@ -22228,7 +22232,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>1021</v>
       </c>
@@ -22255,7 +22259,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>1022</v>
       </c>
@@ -22282,7 +22286,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>1023</v>
       </c>
@@ -22309,7 +22313,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>1024</v>
       </c>
@@ -22376,20 +22380,20 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -22428,10 +22432,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -22442,7 +22446,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1029</v>
       </c>
@@ -22469,7 +22473,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1031</v>
       </c>
@@ -22496,7 +22500,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1033</v>
       </c>
@@ -22523,7 +22527,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>1036</v>
       </c>
@@ -22550,7 +22554,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>1048</v>
       </c>
@@ -22577,7 +22581,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>1039</v>
       </c>
@@ -22604,7 +22608,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>1041</v>
       </c>
@@ -22631,7 +22635,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>1043</v>
       </c>
@@ -22658,7 +22662,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>1045</v>
       </c>
@@ -22685,7 +22689,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>1047</v>
       </c>
@@ -22712,7 +22716,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>1049</v>
       </c>
@@ -22739,7 +22743,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>1050</v>
       </c>
@@ -22766,7 +22770,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>1051</v>
       </c>
@@ -22793,7 +22797,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>1052</v>
       </c>
@@ -22820,7 +22824,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>1053</v>
       </c>
@@ -22847,7 +22851,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>1054</v>
       </c>
@@ -22874,7 +22878,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>1055</v>
       </c>
@@ -22901,7 +22905,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>1056</v>
       </c>
@@ -22928,7 +22932,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>1061</v>
       </c>
@@ -22955,7 +22959,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>1062</v>
       </c>
@@ -22982,7 +22986,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>1063</v>
       </c>
@@ -23009,7 +23013,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>1064</v>
       </c>
@@ -23076,22 +23080,22 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -23126,11 +23130,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -23141,7 +23145,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1069</v>
       </c>
@@ -23168,7 +23172,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1072</v>
       </c>
@@ -23195,7 +23199,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1074</v>
       </c>
@@ -23262,692 +23266,692 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="33" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="33" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="21.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="32" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="32" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="51" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="58" t="s">
         <v>1162</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="58" t="s">
         <v>1160</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="58" t="s">
         <v>1877</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="57" t="s">
         <v>1182</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>1163</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="58" t="s">
         <v>1161</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="58" t="s">
         <v>1878</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="58" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>2132</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D6" s="58" t="s">
         <v>1161</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>1879</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="E6" s="58" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="61" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C7" s="58" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="174" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" ht="278.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="1:11" ht="174" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>2133</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D23" s="58" t="s">
         <v>1161</v>
       </c>
-      <c r="E6" s="62" t="s">
-        <v>1880</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="E23" s="58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C24" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D24" s="58" t="s">
         <v>1161</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="61" t="s">
+      <c r="E24" s="58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="62" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D8" s="62" t="s">
+      <c r="C25" s="58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D25" s="58" t="s">
         <v>1161</v>
       </c>
-      <c r="E8" s="62" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E10" s="62" t="s">
+      <c r="E25" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="57"/>
-    </row>
-    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="57"/>
-    </row>
-    <row r="14" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="57"/>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>1873</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>1874</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>1882</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="57"/>
-    </row>
-    <row r="25" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="62" t="s">
+      <c r="F25" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="57"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23990,22 +23994,22 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -24040,11 +24044,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -24055,7 +24059,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
@@ -24082,7 +24086,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>126</v>
       </c>
@@ -24109,7 +24113,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>128</v>
       </c>
@@ -24136,7 +24140,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -24163,7 +24167,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>132</v>
       </c>
@@ -24190,7 +24194,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>135</v>
       </c>
@@ -24217,7 +24221,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>137</v>
       </c>
@@ -24244,7 +24248,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>141</v>
       </c>
@@ -24271,7 +24275,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>143</v>
       </c>
@@ -24298,7 +24302,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>146</v>
       </c>
@@ -24325,7 +24329,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -24388,26 +24392,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -24442,11 +24446,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -24457,7 +24461,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>150</v>
       </c>
@@ -24484,7 +24488,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>155</v>
       </c>
@@ -24511,7 +24515,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>157</v>
       </c>
@@ -24538,7 +24542,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>160</v>
       </c>
@@ -24565,7 +24569,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>167</v>
       </c>
@@ -24592,7 +24596,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>168</v>
       </c>
@@ -24619,7 +24623,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>169</v>
       </c>
@@ -24646,7 +24650,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>170</v>
       </c>
@@ -24673,7 +24677,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>171</v>
       </c>
@@ -24700,7 +24704,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>172</v>
       </c>
@@ -24727,7 +24731,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>173</v>
       </c>
@@ -24754,7 +24758,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>174</v>
       </c>
@@ -24781,7 +24785,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
@@ -24808,7 +24812,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>176</v>
       </c>
@@ -24835,7 +24839,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>177</v>
       </c>
@@ -24862,7 +24866,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>183</v>
       </c>
@@ -24889,7 +24893,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>184</v>
       </c>
@@ -24916,7 +24920,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>185</v>
       </c>
@@ -24943,7 +24947,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>195</v>
       </c>
@@ -24970,7 +24974,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>197</v>
       </c>
@@ -24997,7 +25001,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>198</v>
       </c>
@@ -25024,7 +25028,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>199</v>
       </c>
@@ -25051,7 +25055,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>200</v>
       </c>
@@ -25078,7 +25082,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>201</v>
       </c>
@@ -25105,7 +25109,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>208</v>
       </c>
@@ -25172,22 +25176,22 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -25222,11 +25226,11 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25237,7 +25241,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>212</v>
       </c>
@@ -25264,7 +25268,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>217</v>
       </c>
@@ -25291,7 +25295,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>220</v>
       </c>
@@ -25318,7 +25322,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>222</v>
       </c>
@@ -25345,7 +25349,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>224</v>
       </c>
@@ -25372,7 +25376,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>227</v>
       </c>
@@ -25399,7 +25403,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>229</v>
       </c>
@@ -25426,7 +25430,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>230</v>
       </c>
@@ -25453,7 +25457,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>231</v>
       </c>
@@ -25480,7 +25484,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>236</v>
       </c>
@@ -25507,7 +25511,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="153" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>239</v>
       </c>
@@ -25534,7 +25538,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="214.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>240</v>
       </c>
@@ -25561,7 +25565,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>244</v>
       </c>
@@ -25588,7 +25592,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>246</v>
       </c>
@@ -25615,7 +25619,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>248</v>
       </c>
@@ -25642,7 +25646,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>250</v>
       </c>
@@ -25669,7 +25673,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>252</v>
       </c>
@@ -25696,7 +25700,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
@@ -25723,7 +25727,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>257</v>
       </c>
@@ -25750,7 +25754,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>259</v>
       </c>
@@ -25777,7 +25781,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>263</v>
       </c>
@@ -25804,7 +25808,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>264</v>
       </c>
@@ -25871,20 +25875,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -25923,10 +25927,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25964,7 +25968,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>268</v>
       </c>
@@ -25991,7 +25995,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>271</v>
       </c>
@@ -26018,7 +26022,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>272</v>
       </c>
@@ -26045,7 +26049,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>273</v>
       </c>
@@ -26099,7 +26103,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>275</v>
       </c>
@@ -26126,7 +26130,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>276</v>
       </c>
@@ -26153,7 +26157,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>278</v>
       </c>
@@ -26180,7 +26184,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>279</v>
       </c>
@@ -26207,7 +26211,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>281</v>
       </c>
@@ -26234,7 +26238,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>284</v>
       </c>
@@ -26342,7 +26346,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="189" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>292</v>
       </c>
@@ -26399,7 +26403,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>296</v>
       </c>
@@ -26453,7 +26457,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>300</v>
       </c>
@@ -26480,7 +26484,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>301</v>
       </c>
@@ -26507,7 +26511,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>302</v>
       </c>
@@ -26534,7 +26538,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>304</v>
       </c>
@@ -26561,7 +26565,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>305</v>
       </c>
@@ -26629,20 +26633,20 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.5546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -26681,10 +26685,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -26695,7 +26699,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="201.6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>308</v>
       </c>
@@ -26722,7 +26726,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>311</v>
       </c>
@@ -26749,7 +26753,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>313</v>
       </c>
@@ -26803,7 +26807,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>319</v>
       </c>
@@ -26830,7 +26834,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>321</v>
       </c>
@@ -26857,7 +26861,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="201.6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>322</v>
       </c>
@@ -26884,7 +26888,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>325</v>
       </c>
@@ -26911,7 +26915,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>327</v>
       </c>
@@ -26938,7 +26942,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>331</v>
       </c>
@@ -26965,7 +26969,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>332</v>
       </c>
@@ -26992,7 +26996,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>334</v>
       </c>
@@ -27019,7 +27023,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>336</v>
       </c>
@@ -27046,7 +27050,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>338</v>
       </c>
@@ -27073,7 +27077,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>340</v>
       </c>
@@ -27100,7 +27104,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>342</v>
       </c>
@@ -27127,7 +27131,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>344</v>
       </c>
@@ -27154,7 +27158,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="163.80000000000001" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>346</v>
       </c>
@@ -27181,7 +27185,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>348</v>
       </c>
@@ -27208,7 +27212,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>350</v>
       </c>
@@ -27235,7 +27239,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>353</v>
       </c>
@@ -27262,7 +27266,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>355</v>
       </c>
@@ -27289,7 +27293,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>358</v>
       </c>
@@ -27316,7 +27320,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>361</v>
       </c>
@@ -27343,7 +27347,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>363</v>
       </c>
@@ -27370,7 +27374,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>368</v>
       </c>
@@ -27397,7 +27401,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="126" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>369</v>
       </c>
@@ -27505,7 +27509,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>375</v>
       </c>
@@ -27532,7 +27536,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>377</v>
       </c>
@@ -27559,7 +27563,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>379</v>
       </c>
@@ -27586,7 +27590,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>380</v>
       </c>
@@ -27613,7 +27617,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>381</v>
       </c>
@@ -27640,7 +27644,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>391</v>
       </c>
@@ -27667,7 +27671,7 @@
       <c r="J38" s="16"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="63" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>392</v>
       </c>
